--- a/improved_model_performance_summary_3outputs.xlsx
+++ b/improved_model_performance_summary_3outputs.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzmin\Downloads\process_time_series-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FAE1F-737A-4FE3-99C0-978527DBB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Cluster_ID</t>
-  </si>
-  <si>
-    <t>Training_File</t>
-  </si>
-  <si>
-    <t>Files_In_Cluster</t>
-  </si>
-  <si>
-    <t>Training_Samples</t>
-  </si>
-  <si>
-    <t>Validation_Samples</t>
-  </si>
-  <si>
-    <t>Test_Samples</t>
-  </si>
-  <si>
-    <t>left_ear_MAPE_%</t>
-  </si>
-  <si>
-    <t>right_ear_MAPE_%</t>
-  </si>
-  <si>
-    <t>mar_MAPE_%</t>
-  </si>
-  <si>
-    <t>Avg_MAPE_%</t>
-  </si>
-  <si>
-    <t>n_73.mp4</t>
-  </si>
-  <si>
-    <t>n_75.mp4</t>
-  </si>
-  <si>
-    <t>d_12.mp4</t>
-  </si>
-  <si>
-    <t>n_234.mp4</t>
-  </si>
-  <si>
-    <t>WIN_20250203_21_10_02_Pro.mp4</t>
-  </si>
-  <si>
-    <t>d_312.mp4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,243 +420,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Training_File</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Files_In_Cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Training_Samples</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Validation_Samples</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test_Samples</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left_ear_MAPE_%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>right_ear_MAPE_%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mar_MAPE_%</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Avg_MAPE_%</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Avg_MAE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Avg_RMSE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>left_ear_R2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>right_ear_R2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mar_R2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n_73.mp4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" t="n">
+        <v>221</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.007991</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.009851</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2749</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2834</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Отличная</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n_75.mp4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>221</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.015015</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01925</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5409</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4462</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Отличная</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d_12.mp4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>221</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.046516</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.057892</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5237000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5379</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1129</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Хорошая</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n_234.mp4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>221</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.009224</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.012487</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3041</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1238</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Отличная</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WIN_20250203_21_10_02_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="D6" t="n">
+        <v>119</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.031198</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.038492</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5163</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Хорошая</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>135</v>
-      </c>
-      <c r="D2">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d_312.mp4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
         <v>221</v>
       </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-      <c r="F2">
+      <c r="E7" t="n">
+        <v>38</v>
+      </c>
+      <c r="F7" t="n">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>2.62</v>
-      </c>
-      <c r="H2">
-        <v>2.31</v>
-      </c>
-      <c r="I2">
-        <v>2.97</v>
-      </c>
-      <c r="J2">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>221</v>
-      </c>
-      <c r="E3">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>3.75</v>
-      </c>
-      <c r="H3">
-        <v>3.8</v>
-      </c>
-      <c r="I3">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="J3">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>221</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>14.14</v>
-      </c>
-      <c r="H4">
-        <v>13.44</v>
-      </c>
-      <c r="I4">
-        <v>23.66</v>
-      </c>
-      <c r="J4">
-        <v>17.079999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>221</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>4.76</v>
-      </c>
-      <c r="H5">
-        <v>4.2</v>
-      </c>
-      <c r="I5">
-        <v>3.18</v>
-      </c>
-      <c r="J5">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>119</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="H6">
-        <v>12.8</v>
-      </c>
-      <c r="I6">
-        <v>6.47</v>
-      </c>
-      <c r="J6">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <v>221</v>
-      </c>
-      <c r="E7">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>1.7</v>
-      </c>
-      <c r="H7">
-        <v>2.1</v>
-      </c>
-      <c r="I7">
-        <v>2.11</v>
-      </c>
-      <c r="J7">
-        <v>1.97</v>
+      <c r="G7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00527</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.006844</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2249</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2451</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.0313</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Отличная</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/improved_model_performance_summary_3outputs.xlsx
+++ b/improved_model_performance_summary_3outputs.xlsx
@@ -537,31 +537,31 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007991</v>
+        <v>0.008432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009851</v>
+        <v>0.010235</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2749</v>
+        <v>0.1458</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2081</v>
+        <v>0.0806</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2834</v>
+        <v>0.3352</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -591,31 +591,31 @@
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>4.01</v>
+        <v>5.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.99</v>
+        <v>5.85</v>
       </c>
       <c r="I3" t="n">
-        <v>5.91</v>
+        <v>8.93</v>
       </c>
       <c r="J3" t="n">
-        <v>4.64</v>
+        <v>6.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.015015</v>
+        <v>0.020316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01925</v>
+        <v>0.024679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5643</v>
+        <v>0.2657</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5409</v>
+        <v>0.2892</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4462</v>
+        <v>0.3412</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -645,31 +645,31 @@
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>14.17</v>
+        <v>15.13</v>
       </c>
       <c r="H4" t="n">
-        <v>13.15</v>
+        <v>18.97</v>
       </c>
       <c r="I4" t="n">
-        <v>20.58</v>
+        <v>17.04</v>
       </c>
       <c r="J4" t="n">
-        <v>15.97</v>
+        <v>17.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.046516</v>
+        <v>0.055218</v>
       </c>
       <c r="L4" t="n">
-        <v>0.057892</v>
+        <v>0.0625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5237000000000001</v>
+        <v>-0.0963</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5379</v>
+        <v>-0.9701</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1129</v>
+        <v>-0.0413</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -699,31 +699,31 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="H5" t="n">
-        <v>2.89</v>
+        <v>3.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.16</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009224</v>
+        <v>0.010231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.012487</v>
+        <v>0.01309</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3041</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1238</v>
+        <v>0.1273</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.4322</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -753,31 +753,31 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>15.57</v>
+        <v>14.79</v>
       </c>
       <c r="H6" t="n">
-        <v>15.75</v>
+        <v>13.03</v>
       </c>
       <c r="I6" t="n">
-        <v>9.33</v>
+        <v>11.41</v>
       </c>
       <c r="J6" t="n">
-        <v>13.55</v>
+        <v>13.08</v>
       </c>
       <c r="K6" t="n">
-        <v>0.031198</v>
+        <v>0.03273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.038492</v>
+        <v>0.04009</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5724</v>
+        <v>0.4529</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5163</v>
+        <v>0.4919</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3381</v>
+        <v>0.193</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -807,31 +807,31 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00527</v>
+        <v>0.004868</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006844</v>
+        <v>0.006296</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2249</v>
+        <v>0.2202</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2451</v>
+        <v>0.3328</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0313</v>
+        <v>-0.3808</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
